--- a/Data/EC/NIT-9000395338.xlsx
+++ b/Data/EC/NIT-9000395338.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B7B5EC5-5765-465A-A785-835DDD7E38CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2932616-9C54-4C3F-9B00-7FAAE204A2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{823720BF-F971-4333-869B-E31F0CF0DD0F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{68F6F2C1-FEC9-4763-84B9-66FB3F95F656}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="146">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,379 +65,382 @@
     <t>CC</t>
   </si>
   <si>
+    <t>32733945</t>
+  </si>
+  <si>
+    <t>OLGA LUCIA VARELA OROZCO</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>32774396</t>
+  </si>
+  <si>
+    <t>BERTA LIGIA SAEZ FUENTES</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
     <t>45511322</t>
   </si>
   <si>
     <t>DAIRA FACETE BLANQUICET</t>
   </si>
   <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>91481300</t>
+  </si>
+  <si>
+    <t>OSCAR FERNANDO RODRIGUEZ SUAREZ</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>45693100</t>
+  </si>
+  <si>
+    <t>MIREYA PAOLA NIÑO PEREZ</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>96342532</t>
+  </si>
+  <si>
+    <t>JOSE KENNEDY PALOMA CRIOLLO</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>9267864</t>
+  </si>
+  <si>
+    <t>VITELIO JOSE MARTINEZ GARCIA</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>70289538</t>
+  </si>
+  <si>
+    <t>MAURICIO ANDRES ARBELAEZ JARAMILLO</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>9267864</t>
-  </si>
-  <si>
-    <t>VITELIO JOSE MARTINEZ GARCIA</t>
-  </si>
-  <si>
-    <t>32733945</t>
-  </si>
-  <si>
-    <t>OLGA LUCIA VARELA OROZCO</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>45693100</t>
-  </si>
-  <si>
-    <t>MIREYA PAOLA NIÑO PEREZ</t>
-  </si>
-  <si>
-    <t>96342532</t>
-  </si>
-  <si>
-    <t>JOSE KENNEDY PALOMA CRIOLLO</t>
-  </si>
-  <si>
-    <t>32774396</t>
-  </si>
-  <si>
-    <t>BERTA LIGIA SAEZ FUENTES</t>
-  </si>
-  <si>
-    <t>91481300</t>
-  </si>
-  <si>
-    <t>OSCAR FERNANDO RODRIGUEZ SUAREZ</t>
-  </si>
-  <si>
-    <t>70289538</t>
-  </si>
-  <si>
-    <t>MAURICIO ANDRES ARBELAEZ JARAMILLO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -536,7 +539,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -549,9 +554,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -751,23 +754,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -795,10 +798,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -851,7 +854,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D60F04B9-4283-B49E-501C-D53F426F22EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{556502CE-AF92-A669-1C2D-D6407714A737}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1202,8 +1205,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F272EEBE-5B91-4FC9-B4B3-E7513DA6B67B}">
-  <dimension ref="B2:J350"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D24DA64-33BB-4E24-BB21-E9736B159CAC}">
+  <dimension ref="B2:J355"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1227,7 +1230,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1272,7 +1275,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1304,12 +1307,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>45671897</v>
+        <v>46493294</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1320,17 +1323,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C13" s="5">
         <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F13" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1357,13 +1360,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>139</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1380,10 +1383,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G16" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1403,10 +1406,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G17" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1426,10 +1429,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G18" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1449,10 +1452,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G19" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1472,10 +1475,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G20" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1495,10 +1498,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G21" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1518,10 +1521,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G22" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1541,10 +1544,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G23" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1564,10 +1567,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G24" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1587,10 +1590,10 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G25" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1610,10 +1613,10 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G26" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1633,10 +1636,10 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G27" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1656,10 +1659,10 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G28" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1679,10 +1682,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G29" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1702,10 +1705,10 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G30" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1725,10 +1728,10 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G31" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1748,10 +1751,10 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G32" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1771,10 +1774,10 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G33" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1794,10 +1797,10 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G34" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1817,10 +1820,10 @@
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G35" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1840,10 +1843,10 @@
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G36" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1863,10 +1866,10 @@
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G37" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1886,10 +1889,10 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G38" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1909,10 +1912,10 @@
         <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G39" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1932,10 +1935,10 @@
         <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G40" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1955,10 +1958,10 @@
         <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G41" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1978,10 +1981,10 @@
         <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G42" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -2001,10 +2004,10 @@
         <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G43" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -2024,10 +2027,10 @@
         <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G44" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2047,10 +2050,10 @@
         <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G45" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2070,10 +2073,10 @@
         <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G46" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2093,10 +2096,10 @@
         <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G47" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2116,10 +2119,10 @@
         <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G48" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2139,10 +2142,10 @@
         <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G49" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2162,10 +2165,10 @@
         <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G50" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2185,10 +2188,10 @@
         <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G51" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2208,10 +2211,10 @@
         <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G52" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2231,10 +2234,10 @@
         <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G53" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2254,10 +2257,10 @@
         <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G54" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2277,10 +2280,10 @@
         <v>50</v>
       </c>
       <c r="F55" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G55" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2300,10 +2303,10 @@
         <v>51</v>
       </c>
       <c r="F56" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G56" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2314,19 +2317,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F57" s="18">
-        <v>158029</v>
+        <v>103573</v>
       </c>
       <c r="G57" s="18">
-        <v>3950730</v>
+        <v>4348155</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2343,13 +2346,13 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F58" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G58" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2360,19 +2363,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>158029</v>
+        <v>103573</v>
       </c>
       <c r="G59" s="18">
-        <v>3950730</v>
+        <v>4348155</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2392,10 +2395,10 @@
         <v>55</v>
       </c>
       <c r="F60" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G60" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2406,19 +2409,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F61" s="18">
-        <v>158029</v>
+        <v>103573</v>
       </c>
       <c r="G61" s="18">
-        <v>3950730</v>
+        <v>4348155</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2435,13 +2438,13 @@
         <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F62" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G62" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2452,19 +2455,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F63" s="18">
-        <v>158029</v>
+        <v>103573</v>
       </c>
       <c r="G63" s="18">
-        <v>3950730</v>
+        <v>4348155</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2481,13 +2484,13 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F64" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G64" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2498,19 +2501,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F65" s="18">
-        <v>158029</v>
+        <v>103573</v>
       </c>
       <c r="G65" s="18">
-        <v>3950730</v>
+        <v>4348155</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2527,13 +2530,13 @@
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F66" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G66" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2544,19 +2547,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F67" s="18">
-        <v>158029</v>
+        <v>103573</v>
       </c>
       <c r="G67" s="18">
-        <v>3950730</v>
+        <v>4348155</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2573,13 +2576,13 @@
         <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F68" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G68" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2590,19 +2593,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F69" s="18">
-        <v>158029</v>
+        <v>103573</v>
       </c>
       <c r="G69" s="18">
-        <v>3950730</v>
+        <v>4348155</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2613,13 +2616,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F70" s="18">
         <v>158029</v>
@@ -2642,13 +2645,13 @@
         <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F71" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G71" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2659,19 +2662,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F72" s="18">
-        <v>158029</v>
+        <v>103573</v>
       </c>
       <c r="G72" s="18">
-        <v>3950730</v>
+        <v>4348155</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2682,13 +2685,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F73" s="18">
         <v>158029</v>
@@ -2711,13 +2714,13 @@
         <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F74" s="18">
-        <v>158029</v>
+        <v>76708</v>
       </c>
       <c r="G74" s="18">
-        <v>3950730</v>
+        <v>1917684</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2728,19 +2731,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F75" s="18">
-        <v>158029</v>
+        <v>103573</v>
       </c>
       <c r="G75" s="18">
-        <v>3950730</v>
+        <v>4348155</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2751,19 +2754,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F76" s="18">
-        <v>158029</v>
+        <v>213378</v>
       </c>
       <c r="G76" s="18">
-        <v>3950730</v>
+        <v>5334460</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2774,13 +2777,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F77" s="18">
         <v>158029</v>
@@ -2797,19 +2800,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F78" s="18">
-        <v>199355</v>
+        <v>76708</v>
       </c>
       <c r="G78" s="18">
-        <v>4983856</v>
+        <v>1917684</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2820,19 +2823,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F79" s="18">
-        <v>199355</v>
+        <v>103573</v>
       </c>
       <c r="G79" s="18">
-        <v>4983856</v>
+        <v>4348155</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2843,19 +2846,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F80" s="18">
-        <v>199355</v>
+        <v>213378</v>
       </c>
       <c r="G80" s="18">
-        <v>4983856</v>
+        <v>5334460</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2866,19 +2869,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F81" s="18">
-        <v>199355</v>
+        <v>158029</v>
       </c>
       <c r="G81" s="18">
-        <v>4983856</v>
+        <v>3950730</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2889,19 +2892,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="F82" s="18">
-        <v>199355</v>
+        <v>76708</v>
       </c>
       <c r="G82" s="18">
-        <v>4983856</v>
+        <v>1917684</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2912,19 +2915,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F83" s="18">
-        <v>199355</v>
+        <v>103573</v>
       </c>
       <c r="G83" s="18">
-        <v>4983856</v>
+        <v>4348155</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2935,19 +2938,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="F84" s="18">
-        <v>199355</v>
+        <v>213378</v>
       </c>
       <c r="G84" s="18">
-        <v>4983856</v>
+        <v>5334460</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2958,19 +2961,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="F85" s="18">
-        <v>199355</v>
+        <v>158029</v>
       </c>
       <c r="G85" s="18">
-        <v>4983856</v>
+        <v>3950730</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2981,19 +2984,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="F86" s="18">
-        <v>199355</v>
+        <v>76708</v>
       </c>
       <c r="G86" s="18">
-        <v>4983856</v>
+        <v>1917684</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -3004,19 +3007,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="F87" s="18">
-        <v>199355</v>
+        <v>103573</v>
       </c>
       <c r="G87" s="18">
-        <v>4983856</v>
+        <v>4348155</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3027,19 +3030,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="F88" s="18">
-        <v>199355</v>
+        <v>213378</v>
       </c>
       <c r="G88" s="18">
-        <v>4983856</v>
+        <v>5334460</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3050,19 +3053,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="F89" s="18">
-        <v>199355</v>
+        <v>158029</v>
       </c>
       <c r="G89" s="18">
-        <v>4983856</v>
+        <v>3950730</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3073,19 +3076,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="F90" s="18">
-        <v>199355</v>
+        <v>76708</v>
       </c>
       <c r="G90" s="18">
-        <v>4983856</v>
+        <v>1917684</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3096,19 +3099,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="F91" s="18">
-        <v>199355</v>
+        <v>103573</v>
       </c>
       <c r="G91" s="18">
-        <v>4983856</v>
+        <v>4348155</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3119,19 +3122,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="F92" s="18">
-        <v>199355</v>
+        <v>213378</v>
       </c>
       <c r="G92" s="18">
-        <v>4983856</v>
+        <v>5334460</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3142,19 +3145,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="F93" s="18">
-        <v>199355</v>
+        <v>158029</v>
       </c>
       <c r="G93" s="18">
-        <v>4983856</v>
+        <v>3950730</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3165,19 +3168,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="F94" s="18">
-        <v>199355</v>
+        <v>76708</v>
       </c>
       <c r="G94" s="18">
-        <v>4983856</v>
+        <v>1917684</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3188,19 +3191,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="F95" s="18">
-        <v>199355</v>
+        <v>103573</v>
       </c>
       <c r="G95" s="18">
-        <v>4983856</v>
+        <v>4348155</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3211,19 +3214,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F96" s="18">
-        <v>199355</v>
+        <v>213378</v>
       </c>
       <c r="G96" s="18">
-        <v>4983856</v>
+        <v>5334460</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3234,19 +3237,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="F97" s="18">
-        <v>199355</v>
+        <v>158029</v>
       </c>
       <c r="G97" s="18">
-        <v>4983856</v>
+        <v>3950730</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3257,19 +3260,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F98" s="18">
-        <v>199355</v>
+        <v>76708</v>
       </c>
       <c r="G98" s="18">
-        <v>4983856</v>
+        <v>1917684</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3280,19 +3283,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="F99" s="18">
-        <v>199355</v>
+        <v>103573</v>
       </c>
       <c r="G99" s="18">
-        <v>4983856</v>
+        <v>4348155</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3303,19 +3306,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="F100" s="18">
-        <v>199355</v>
+        <v>213378</v>
       </c>
       <c r="G100" s="18">
-        <v>4983856</v>
+        <v>5334460</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3326,19 +3329,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="F101" s="18">
-        <v>199355</v>
+        <v>158029</v>
       </c>
       <c r="G101" s="18">
-        <v>4983856</v>
+        <v>3950730</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3349,19 +3352,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="F102" s="18">
-        <v>199355</v>
+        <v>76708</v>
       </c>
       <c r="G102" s="18">
-        <v>4983856</v>
+        <v>1917684</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3372,19 +3375,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="F103" s="18">
-        <v>76708</v>
+        <v>61840</v>
       </c>
       <c r="G103" s="18">
-        <v>1917684</v>
+        <v>2491836</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3395,19 +3398,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="F104" s="18">
-        <v>76708</v>
+        <v>103573</v>
       </c>
       <c r="G104" s="18">
-        <v>1917684</v>
+        <v>4348155</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3418,19 +3421,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F105" s="18">
-        <v>76708</v>
+        <v>213378</v>
       </c>
       <c r="G105" s="18">
-        <v>1917684</v>
+        <v>5334460</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3441,19 +3444,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E106" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D106" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E106" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F106" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G106" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3464,13 +3467,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F107" s="18">
         <v>76708</v>
@@ -3487,19 +3490,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E108" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D108" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F108" s="18">
-        <v>76708</v>
+        <v>61840</v>
       </c>
       <c r="G108" s="18">
-        <v>1917684</v>
+        <v>2491836</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3510,19 +3513,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E109" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D109" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F109" s="18">
-        <v>76708</v>
+        <v>103573</v>
       </c>
       <c r="G109" s="18">
-        <v>1917684</v>
+        <v>4348155</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3533,19 +3536,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E110" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D110" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F110" s="18">
-        <v>76708</v>
+        <v>213378</v>
       </c>
       <c r="G110" s="18">
-        <v>1917684</v>
+        <v>5334460</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3556,19 +3559,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D111" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E111" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E111" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F111" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G111" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3579,13 +3582,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="16" t="s">
         <v>76</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F112" s="18">
         <v>76708</v>
@@ -3602,19 +3605,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D113" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E113" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E113" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F113" s="18">
-        <v>76708</v>
+        <v>103573</v>
       </c>
       <c r="G113" s="18">
-        <v>1917684</v>
+        <v>4348155</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3625,19 +3628,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D114" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E114" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E114" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F114" s="18">
-        <v>76708</v>
+        <v>213378</v>
       </c>
       <c r="G114" s="18">
-        <v>1917684</v>
+        <v>5334460</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3648,19 +3651,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="F115" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G115" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3671,13 +3674,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="F116" s="18">
         <v>76708</v>
@@ -3694,19 +3697,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="F117" s="18">
-        <v>76708</v>
+        <v>103573</v>
       </c>
       <c r="G117" s="18">
-        <v>1917684</v>
+        <v>4348155</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3717,19 +3720,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="F118" s="18">
-        <v>76708</v>
+        <v>213378</v>
       </c>
       <c r="G118" s="18">
-        <v>1917684</v>
+        <v>5334460</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3740,19 +3743,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="F119" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G119" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3763,13 +3766,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="F120" s="18">
         <v>76708</v>
@@ -3786,19 +3789,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="F121" s="18">
-        <v>76708</v>
+        <v>103573</v>
       </c>
       <c r="G121" s="18">
-        <v>1917684</v>
+        <v>4348155</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3809,19 +3812,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="F122" s="18">
-        <v>76708</v>
+        <v>213378</v>
       </c>
       <c r="G122" s="18">
-        <v>1917684</v>
+        <v>5334460</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3832,19 +3835,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="F123" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G123" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3855,13 +3858,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="F124" s="18">
         <v>76708</v>
@@ -3878,19 +3881,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="F125" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G125" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3901,19 +3904,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="F126" s="18">
-        <v>76708</v>
+        <v>103573</v>
       </c>
       <c r="G126" s="18">
-        <v>1917684</v>
+        <v>4348155</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3924,19 +3927,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="F127" s="18">
-        <v>76708</v>
+        <v>213378</v>
       </c>
       <c r="G127" s="18">
-        <v>1917684</v>
+        <v>5334460</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3947,19 +3950,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="F128" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G128" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3970,13 +3973,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="F129" s="18">
         <v>76708</v>
@@ -3993,19 +3996,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="F130" s="18">
-        <v>76708</v>
+        <v>103573</v>
       </c>
       <c r="G130" s="18">
-        <v>1917684</v>
+        <v>4348155</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -4016,19 +4019,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="F131" s="18">
-        <v>76708</v>
+        <v>213378</v>
       </c>
       <c r="G131" s="18">
-        <v>1917684</v>
+        <v>5334460</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4039,19 +4042,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="F132" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G132" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4062,13 +4065,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="F133" s="18">
         <v>76708</v>
@@ -4085,19 +4088,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="F134" s="18">
-        <v>76708</v>
+        <v>103573</v>
       </c>
       <c r="G134" s="18">
-        <v>1917684</v>
+        <v>4348155</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4108,19 +4111,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F135" s="18">
-        <v>76708</v>
+        <v>213378</v>
       </c>
       <c r="G135" s="18">
-        <v>1917684</v>
+        <v>5334460</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4131,19 +4134,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F136" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G136" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4154,13 +4157,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="F137" s="18">
         <v>76708</v>
@@ -4177,19 +4180,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F138" s="18">
-        <v>76708</v>
+        <v>103573</v>
       </c>
       <c r="G138" s="18">
-        <v>1917684</v>
+        <v>4348155</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4200,19 +4203,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="F139" s="18">
-        <v>76708</v>
+        <v>213378</v>
       </c>
       <c r="G139" s="18">
-        <v>1917684</v>
+        <v>5334460</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4223,19 +4226,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="F140" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G140" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4246,13 +4249,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F141" s="18">
         <v>76708</v>
@@ -4269,19 +4272,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="F142" s="18">
-        <v>76708</v>
+        <v>103573</v>
       </c>
       <c r="G142" s="18">
-        <v>1917684</v>
+        <v>4348155</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4292,19 +4295,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="F143" s="18">
-        <v>76708</v>
+        <v>213378</v>
       </c>
       <c r="G143" s="18">
-        <v>1917684</v>
+        <v>5334460</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4315,19 +4318,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="F144" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G144" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4338,13 +4341,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="F145" s="18">
         <v>76708</v>
@@ -4361,19 +4364,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F146" s="18">
-        <v>76708</v>
+        <v>103573</v>
       </c>
       <c r="G146" s="18">
-        <v>1917684</v>
+        <v>4348155</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4384,19 +4387,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="F147" s="18">
-        <v>76708</v>
+        <v>213378</v>
       </c>
       <c r="G147" s="18">
-        <v>1917684</v>
+        <v>5334460</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4407,19 +4410,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="F148" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G148" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4430,13 +4433,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="F149" s="18">
         <v>76708</v>
@@ -4453,19 +4456,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="F150" s="18">
-        <v>76708</v>
+        <v>103573</v>
       </c>
       <c r="G150" s="18">
-        <v>1917684</v>
+        <v>4348155</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4476,19 +4479,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="F151" s="18">
-        <v>76708</v>
+        <v>213378</v>
       </c>
       <c r="G151" s="18">
-        <v>1917684</v>
+        <v>5334460</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4499,19 +4502,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F152" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G152" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4522,13 +4525,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="F153" s="18">
         <v>76708</v>
@@ -4545,19 +4548,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="F154" s="18">
-        <v>76708</v>
+        <v>103573</v>
       </c>
       <c r="G154" s="18">
-        <v>1917684</v>
+        <v>4348155</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4568,19 +4571,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="F155" s="18">
-        <v>76708</v>
+        <v>213378</v>
       </c>
       <c r="G155" s="18">
-        <v>1917684</v>
+        <v>5334460</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4591,19 +4594,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="F156" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G156" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4614,13 +4617,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="F157" s="18">
         <v>76708</v>
@@ -4637,19 +4640,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="F158" s="18">
-        <v>76708</v>
+        <v>103573</v>
       </c>
       <c r="G158" s="18">
-        <v>1917684</v>
+        <v>4348155</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4660,19 +4663,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="F159" s="18">
-        <v>76708</v>
+        <v>213378</v>
       </c>
       <c r="G159" s="18">
-        <v>1917684</v>
+        <v>5334460</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4683,19 +4686,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F160" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G160" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4706,13 +4709,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="F161" s="18">
         <v>76708</v>
@@ -4729,19 +4732,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F162" s="18">
-        <v>76708</v>
+        <v>103573</v>
       </c>
       <c r="G162" s="18">
-        <v>1917684</v>
+        <v>4348155</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4752,19 +4755,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="F163" s="18">
-        <v>76708</v>
+        <v>213378</v>
       </c>
       <c r="G163" s="18">
-        <v>1917684</v>
+        <v>5334460</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4775,19 +4778,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="F164" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G164" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4798,13 +4801,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F165" s="18">
         <v>76708</v>
@@ -4821,19 +4824,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F166" s="18">
-        <v>76708</v>
+        <v>103573</v>
       </c>
       <c r="G166" s="18">
-        <v>1917684</v>
+        <v>4348155</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4844,19 +4847,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F167" s="18">
-        <v>76708</v>
+        <v>213378</v>
       </c>
       <c r="G167" s="18">
-        <v>1917684</v>
+        <v>5334460</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4867,19 +4870,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F168" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G168" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4890,13 +4893,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F169" s="18">
         <v>76708</v>
@@ -4913,19 +4916,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F170" s="18">
-        <v>76708</v>
+        <v>103573</v>
       </c>
       <c r="G170" s="18">
-        <v>1917684</v>
+        <v>4348155</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4936,19 +4939,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F171" s="18">
-        <v>76708</v>
+        <v>213378</v>
       </c>
       <c r="G171" s="18">
-        <v>1917684</v>
+        <v>5334460</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4959,19 +4962,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F172" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G172" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4982,13 +4985,13 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F173" s="18">
         <v>76708</v>
@@ -5005,19 +5008,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F174" s="18">
-        <v>76708</v>
+        <v>103573</v>
       </c>
       <c r="G174" s="18">
-        <v>1917684</v>
+        <v>4348155</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -5028,19 +5031,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F175" s="18">
-        <v>76708</v>
+        <v>213378</v>
       </c>
       <c r="G175" s="18">
-        <v>1917684</v>
+        <v>5334460</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5051,19 +5054,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F176" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G176" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -5074,13 +5077,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F177" s="18">
         <v>76708</v>
@@ -5097,19 +5100,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F178" s="18">
-        <v>76708</v>
+        <v>103573</v>
       </c>
       <c r="G178" s="18">
-        <v>1917684</v>
+        <v>4348155</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5120,19 +5123,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F179" s="18">
-        <v>76708</v>
+        <v>213378</v>
       </c>
       <c r="G179" s="18">
-        <v>1917684</v>
+        <v>5334460</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5143,19 +5146,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F180" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G180" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5166,13 +5169,13 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F181" s="18">
         <v>76708</v>
@@ -5189,19 +5192,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F182" s="18">
-        <v>76708</v>
+        <v>103573</v>
       </c>
       <c r="G182" s="18">
-        <v>1917684</v>
+        <v>4348155</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5212,19 +5215,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E183" s="16" t="s">
         <v>95</v>
       </c>
       <c r="F183" s="18">
-        <v>76708</v>
+        <v>213378</v>
       </c>
       <c r="G183" s="18">
-        <v>1917684</v>
+        <v>5334460</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5235,19 +5238,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E184" s="16" t="s">
         <v>96</v>
       </c>
       <c r="F184" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G184" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5258,13 +5261,13 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F185" s="18">
         <v>76708</v>
@@ -5281,19 +5284,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F186" s="18">
-        <v>76708</v>
+        <v>103573</v>
       </c>
       <c r="G186" s="18">
-        <v>1917684</v>
+        <v>4348155</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5304,19 +5307,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F187" s="18">
-        <v>76708</v>
+        <v>213378</v>
       </c>
       <c r="G187" s="18">
-        <v>1917684</v>
+        <v>5334460</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5327,19 +5330,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F188" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G188" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5350,13 +5353,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F189" s="18">
         <v>76708</v>
@@ -5373,19 +5376,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F190" s="18">
-        <v>76708</v>
+        <v>103573</v>
       </c>
       <c r="G190" s="18">
-        <v>1917684</v>
+        <v>4348155</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5396,19 +5399,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F191" s="18">
-        <v>76708</v>
+        <v>213378</v>
       </c>
       <c r="G191" s="18">
-        <v>1917684</v>
+        <v>5334460</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5419,19 +5422,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F192" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G192" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5442,13 +5445,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F193" s="18">
         <v>76708</v>
@@ -5465,19 +5468,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F194" s="18">
-        <v>76708</v>
+        <v>213378</v>
       </c>
       <c r="G194" s="18">
-        <v>1917684</v>
+        <v>5334460</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5488,19 +5491,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F195" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G195" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5511,13 +5514,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F196" s="18">
         <v>76708</v>
@@ -5534,19 +5537,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F197" s="18">
-        <v>76708</v>
+        <v>173927</v>
       </c>
       <c r="G197" s="18">
-        <v>1917684</v>
+        <v>4348155</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5557,19 +5560,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F198" s="18">
-        <v>76708</v>
+        <v>213378</v>
       </c>
       <c r="G198" s="18">
-        <v>1917684</v>
+        <v>5334460</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5580,19 +5583,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F199" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G199" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5603,13 +5606,13 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F200" s="18">
         <v>76708</v>
@@ -5626,19 +5629,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F201" s="18">
-        <v>76708</v>
+        <v>173927</v>
       </c>
       <c r="G201" s="18">
-        <v>1917684</v>
+        <v>4348155</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5649,19 +5652,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F202" s="18">
-        <v>76708</v>
+        <v>213378</v>
       </c>
       <c r="G202" s="18">
-        <v>1917684</v>
+        <v>5334460</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5672,19 +5675,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F203" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G203" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5695,13 +5698,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F204" s="18">
         <v>76708</v>
@@ -5718,19 +5721,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F205" s="18">
-        <v>76708</v>
+        <v>173927</v>
       </c>
       <c r="G205" s="18">
-        <v>1917684</v>
+        <v>4348155</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5741,19 +5744,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="F206" s="18">
-        <v>76708</v>
+        <v>213378</v>
       </c>
       <c r="G206" s="18">
-        <v>1917684</v>
+        <v>5334460</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5764,19 +5767,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F207" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G207" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5787,13 +5790,13 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="F208" s="18">
         <v>76708</v>
@@ -5810,19 +5813,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="F209" s="18">
-        <v>76708</v>
+        <v>173927</v>
       </c>
       <c r="G209" s="18">
-        <v>1917684</v>
+        <v>4348155</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5833,19 +5836,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F210" s="18">
-        <v>76708</v>
+        <v>213378</v>
       </c>
       <c r="G210" s="18">
-        <v>1917684</v>
+        <v>5334460</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -5856,19 +5859,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="F211" s="18">
-        <v>76708</v>
+        <v>158029</v>
       </c>
       <c r="G211" s="18">
-        <v>1917684</v>
+        <v>3950730</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5879,19 +5882,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="F212" s="18">
-        <v>61840</v>
+        <v>76708</v>
       </c>
       <c r="G212" s="18">
-        <v>2162467</v>
+        <v>1917684</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5902,19 +5905,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="F213" s="18">
-        <v>61840</v>
+        <v>173927</v>
       </c>
       <c r="G213" s="18">
-        <v>2162467</v>
+        <v>4348155</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5925,19 +5928,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="F214" s="18">
-        <v>158029</v>
+        <v>213378</v>
       </c>
       <c r="G214" s="18">
-        <v>3950730</v>
+        <v>5334460</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5948,19 +5951,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="F215" s="18">
-        <v>173927</v>
+        <v>158029</v>
       </c>
       <c r="G215" s="18">
-        <v>4348155</v>
+        <v>3950730</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5971,19 +5974,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="F216" s="18">
-        <v>173927</v>
+        <v>76708</v>
       </c>
       <c r="G216" s="18">
-        <v>4348155</v>
+        <v>1917684</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -5994,13 +5997,13 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="F217" s="18">
         <v>173927</v>
@@ -6017,19 +6020,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="F218" s="18">
-        <v>173927</v>
+        <v>213378</v>
       </c>
       <c r="G218" s="18">
-        <v>4348155</v>
+        <v>5334460</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -6040,19 +6043,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="F219" s="18">
-        <v>173927</v>
+        <v>158029</v>
       </c>
       <c r="G219" s="18">
-        <v>4348155</v>
+        <v>3950730</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6063,19 +6066,19 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="F220" s="18">
-        <v>173927</v>
+        <v>199355</v>
       </c>
       <c r="G220" s="18">
-        <v>4348155</v>
+        <v>4983856</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -6086,19 +6089,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F221" s="18">
-        <v>173927</v>
+        <v>76708</v>
       </c>
       <c r="G221" s="18">
-        <v>4348155</v>
+        <v>1917684</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6109,13 +6112,13 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="F222" s="18">
         <v>173927</v>
@@ -6132,19 +6135,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="F223" s="18">
-        <v>173927</v>
+        <v>213378</v>
       </c>
       <c r="G223" s="18">
-        <v>4348155</v>
+        <v>5334460</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -6155,19 +6158,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="F224" s="18">
-        <v>173927</v>
+        <v>158029</v>
       </c>
       <c r="G224" s="18">
-        <v>4348155</v>
+        <v>3950730</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6178,19 +6181,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="F225" s="18">
-        <v>173927</v>
+        <v>199355</v>
       </c>
       <c r="G225" s="18">
-        <v>4348155</v>
+        <v>4983856</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6201,19 +6204,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="F226" s="18">
-        <v>173927</v>
+        <v>76708</v>
       </c>
       <c r="G226" s="18">
-        <v>4348155</v>
+        <v>1917684</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6224,13 +6227,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="F227" s="18">
         <v>173927</v>
@@ -6247,19 +6250,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="F228" s="18">
-        <v>173927</v>
+        <v>213378</v>
       </c>
       <c r="G228" s="18">
-        <v>4348155</v>
+        <v>5334460</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6270,19 +6273,19 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="F229" s="18">
-        <v>173927</v>
+        <v>158029</v>
       </c>
       <c r="G229" s="18">
-        <v>4348155</v>
+        <v>3950730</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6293,19 +6296,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="F230" s="18">
-        <v>173927</v>
+        <v>199355</v>
       </c>
       <c r="G230" s="18">
-        <v>4348155</v>
+        <v>4983856</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6316,19 +6319,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="F231" s="18">
-        <v>173927</v>
+        <v>76708</v>
       </c>
       <c r="G231" s="18">
-        <v>4348155</v>
+        <v>1917684</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6339,13 +6342,13 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="F232" s="18">
         <v>173927</v>
@@ -6362,19 +6365,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="F233" s="18">
-        <v>173927</v>
+        <v>213378</v>
       </c>
       <c r="G233" s="18">
-        <v>4348155</v>
+        <v>5334460</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6385,19 +6388,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="F234" s="18">
-        <v>173927</v>
+        <v>7347</v>
       </c>
       <c r="G234" s="18">
-        <v>4348155</v>
+        <v>5510171</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6408,19 +6411,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="F235" s="18">
-        <v>173927</v>
+        <v>158029</v>
       </c>
       <c r="G235" s="18">
-        <v>4348155</v>
+        <v>3950730</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6431,19 +6434,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="F236" s="18">
-        <v>173927</v>
+        <v>199355</v>
       </c>
       <c r="G236" s="18">
-        <v>4348155</v>
+        <v>4983856</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6454,19 +6457,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="F237" s="18">
-        <v>173927</v>
+        <v>76708</v>
       </c>
       <c r="G237" s="18">
-        <v>4348155</v>
+        <v>1917684</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6477,13 +6480,13 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="F238" s="18">
         <v>173927</v>
@@ -6500,19 +6503,19 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="F239" s="18">
-        <v>173927</v>
+        <v>213378</v>
       </c>
       <c r="G239" s="18">
-        <v>4348155</v>
+        <v>5334460</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6523,19 +6526,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="F240" s="18">
-        <v>173927</v>
+        <v>158029</v>
       </c>
       <c r="G240" s="18">
-        <v>4348155</v>
+        <v>3950730</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6546,19 +6549,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="F241" s="18">
-        <v>173927</v>
+        <v>199355</v>
       </c>
       <c r="G241" s="18">
-        <v>4348155</v>
+        <v>4983856</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6569,19 +6572,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="F242" s="18">
-        <v>173927</v>
+        <v>76708</v>
       </c>
       <c r="G242" s="18">
-        <v>4348155</v>
+        <v>1917684</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6592,13 +6595,13 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="F243" s="18">
         <v>173927</v>
@@ -6615,19 +6618,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="F244" s="18">
-        <v>173927</v>
+        <v>213378</v>
       </c>
       <c r="G244" s="18">
-        <v>4348155</v>
+        <v>5334460</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6638,19 +6641,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="F245" s="18">
-        <v>173927</v>
+        <v>158029</v>
       </c>
       <c r="G245" s="18">
-        <v>4348155</v>
+        <v>3950730</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6661,19 +6664,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="F246" s="18">
-        <v>103573</v>
+        <v>199355</v>
       </c>
       <c r="G246" s="18">
-        <v>4348155</v>
+        <v>4983856</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6684,19 +6687,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="F247" s="18">
-        <v>103573</v>
+        <v>76708</v>
       </c>
       <c r="G247" s="18">
-        <v>4348155</v>
+        <v>1917684</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6707,16 +6710,16 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="F248" s="18">
-        <v>103573</v>
+        <v>173927</v>
       </c>
       <c r="G248" s="18">
         <v>4348155</v>
@@ -6730,19 +6733,19 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="F249" s="18">
-        <v>103573</v>
+        <v>213378</v>
       </c>
       <c r="G249" s="18">
-        <v>4348155</v>
+        <v>5334460</v>
       </c>
       <c r="H249" s="19"/>
       <c r="I249" s="19"/>
@@ -6753,19 +6756,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="F250" s="18">
-        <v>103573</v>
+        <v>158029</v>
       </c>
       <c r="G250" s="18">
-        <v>4348155</v>
+        <v>3950730</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6776,19 +6779,19 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="F251" s="18">
-        <v>103573</v>
+        <v>199355</v>
       </c>
       <c r="G251" s="18">
-        <v>4348155</v>
+        <v>4983856</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -6799,19 +6802,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="F252" s="18">
-        <v>103573</v>
+        <v>76708</v>
       </c>
       <c r="G252" s="18">
-        <v>4348155</v>
+        <v>1917684</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -6822,16 +6825,16 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="F253" s="18">
-        <v>103573</v>
+        <v>173927</v>
       </c>
       <c r="G253" s="18">
         <v>4348155</v>
@@ -6845,19 +6848,19 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="F254" s="18">
-        <v>103573</v>
+        <v>213378</v>
       </c>
       <c r="G254" s="18">
-        <v>4348155</v>
+        <v>5334460</v>
       </c>
       <c r="H254" s="19"/>
       <c r="I254" s="19"/>
@@ -6868,19 +6871,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="F255" s="18">
-        <v>103573</v>
+        <v>158029</v>
       </c>
       <c r="G255" s="18">
-        <v>4348155</v>
+        <v>3950730</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -6891,19 +6894,19 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="F256" s="18">
-        <v>103573</v>
+        <v>199355</v>
       </c>
       <c r="G256" s="18">
-        <v>4348155</v>
+        <v>4983856</v>
       </c>
       <c r="H256" s="19"/>
       <c r="I256" s="19"/>
@@ -6914,19 +6917,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="F257" s="18">
-        <v>103573</v>
+        <v>76708</v>
       </c>
       <c r="G257" s="18">
-        <v>4348155</v>
+        <v>1917684</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -6937,16 +6940,16 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="F258" s="18">
-        <v>103573</v>
+        <v>173927</v>
       </c>
       <c r="G258" s="18">
         <v>4348155</v>
@@ -6960,19 +6963,19 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="F259" s="18">
-        <v>103573</v>
+        <v>213378</v>
       </c>
       <c r="G259" s="18">
-        <v>4348155</v>
+        <v>5334460</v>
       </c>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
@@ -6983,19 +6986,19 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="F260" s="18">
-        <v>103573</v>
+        <v>158029</v>
       </c>
       <c r="G260" s="18">
-        <v>4348155</v>
+        <v>3950730</v>
       </c>
       <c r="H260" s="19"/>
       <c r="I260" s="19"/>
@@ -7006,19 +7009,19 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="F261" s="18">
-        <v>103573</v>
+        <v>199355</v>
       </c>
       <c r="G261" s="18">
-        <v>4348155</v>
+        <v>4983856</v>
       </c>
       <c r="H261" s="19"/>
       <c r="I261" s="19"/>
@@ -7029,19 +7032,19 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="F262" s="18">
-        <v>103573</v>
+        <v>76708</v>
       </c>
       <c r="G262" s="18">
-        <v>4348155</v>
+        <v>1917684</v>
       </c>
       <c r="H262" s="19"/>
       <c r="I262" s="19"/>
@@ -7052,16 +7055,16 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="F263" s="18">
-        <v>103573</v>
+        <v>173927</v>
       </c>
       <c r="G263" s="18">
         <v>4348155</v>
@@ -7075,19 +7078,19 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="F264" s="18">
-        <v>103573</v>
+        <v>213378</v>
       </c>
       <c r="G264" s="18">
-        <v>4348155</v>
+        <v>5334460</v>
       </c>
       <c r="H264" s="19"/>
       <c r="I264" s="19"/>
@@ -7098,19 +7101,19 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="F265" s="18">
-        <v>103573</v>
+        <v>158029</v>
       </c>
       <c r="G265" s="18">
-        <v>4348155</v>
+        <v>3950730</v>
       </c>
       <c r="H265" s="19"/>
       <c r="I265" s="19"/>
@@ -7121,19 +7124,19 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="F266" s="18">
-        <v>103573</v>
+        <v>199355</v>
       </c>
       <c r="G266" s="18">
-        <v>4348155</v>
+        <v>4983856</v>
       </c>
       <c r="H266" s="19"/>
       <c r="I266" s="19"/>
@@ -7144,19 +7147,19 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="F267" s="18">
-        <v>103573</v>
+        <v>76708</v>
       </c>
       <c r="G267" s="18">
-        <v>4348155</v>
+        <v>1917684</v>
       </c>
       <c r="H267" s="19"/>
       <c r="I267" s="19"/>
@@ -7167,16 +7170,16 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="F268" s="18">
-        <v>103573</v>
+        <v>173927</v>
       </c>
       <c r="G268" s="18">
         <v>4348155</v>
@@ -7190,19 +7193,19 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="F269" s="18">
-        <v>103573</v>
+        <v>213378</v>
       </c>
       <c r="G269" s="18">
-        <v>4348155</v>
+        <v>5334460</v>
       </c>
       <c r="H269" s="19"/>
       <c r="I269" s="19"/>
@@ -7213,19 +7216,19 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="F270" s="18">
-        <v>103573</v>
+        <v>158029</v>
       </c>
       <c r="G270" s="18">
-        <v>4348155</v>
+        <v>3950730</v>
       </c>
       <c r="H270" s="19"/>
       <c r="I270" s="19"/>
@@ -7236,19 +7239,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="F271" s="18">
-        <v>103573</v>
+        <v>199355</v>
       </c>
       <c r="G271" s="18">
-        <v>4348155</v>
+        <v>4983856</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7259,19 +7262,19 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="F272" s="18">
-        <v>103573</v>
+        <v>76708</v>
       </c>
       <c r="G272" s="18">
-        <v>4348155</v>
+        <v>1917684</v>
       </c>
       <c r="H272" s="19"/>
       <c r="I272" s="19"/>
@@ -7282,16 +7285,16 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="F273" s="18">
-        <v>103573</v>
+        <v>173927</v>
       </c>
       <c r="G273" s="18">
         <v>4348155</v>
@@ -7305,19 +7308,19 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="F274" s="18">
-        <v>103573</v>
+        <v>213378</v>
       </c>
       <c r="G274" s="18">
-        <v>4348155</v>
+        <v>5334460</v>
       </c>
       <c r="H274" s="19"/>
       <c r="I274" s="19"/>
@@ -7328,19 +7331,19 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="F275" s="18">
-        <v>103573</v>
+        <v>158029</v>
       </c>
       <c r="G275" s="18">
-        <v>4348155</v>
+        <v>3950730</v>
       </c>
       <c r="H275" s="19"/>
       <c r="I275" s="19"/>
@@ -7351,19 +7354,19 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="F276" s="18">
-        <v>103573</v>
+        <v>199355</v>
       </c>
       <c r="G276" s="18">
-        <v>4348155</v>
+        <v>4983856</v>
       </c>
       <c r="H276" s="19"/>
       <c r="I276" s="19"/>
@@ -7374,19 +7377,19 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="F277" s="18">
-        <v>103573</v>
+        <v>76708</v>
       </c>
       <c r="G277" s="18">
-        <v>4348155</v>
+        <v>1917684</v>
       </c>
       <c r="H277" s="19"/>
       <c r="I277" s="19"/>
@@ -7397,16 +7400,16 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="F278" s="18">
-        <v>103573</v>
+        <v>173927</v>
       </c>
       <c r="G278" s="18">
         <v>4348155</v>
@@ -7420,19 +7423,19 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F279" s="18">
-        <v>103573</v>
+        <v>213378</v>
       </c>
       <c r="G279" s="18">
-        <v>4348155</v>
+        <v>5334460</v>
       </c>
       <c r="H279" s="19"/>
       <c r="I279" s="19"/>
@@ -7443,19 +7446,19 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="F280" s="18">
-        <v>103573</v>
+        <v>158029</v>
       </c>
       <c r="G280" s="18">
-        <v>4348155</v>
+        <v>3950730</v>
       </c>
       <c r="H280" s="19"/>
       <c r="I280" s="19"/>
@@ -7466,19 +7469,19 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="F281" s="18">
-        <v>103573</v>
+        <v>199355</v>
       </c>
       <c r="G281" s="18">
-        <v>4348155</v>
+        <v>4983856</v>
       </c>
       <c r="H281" s="19"/>
       <c r="I281" s="19"/>
@@ -7489,19 +7492,19 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="F282" s="18">
-        <v>103573</v>
+        <v>76708</v>
       </c>
       <c r="G282" s="18">
-        <v>4348155</v>
+        <v>1917684</v>
       </c>
       <c r="H282" s="19"/>
       <c r="I282" s="19"/>
@@ -7512,19 +7515,19 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="F283" s="18">
-        <v>213378</v>
+        <v>173927</v>
       </c>
       <c r="G283" s="18">
-        <v>5334460</v>
+        <v>4348155</v>
       </c>
       <c r="H283" s="19"/>
       <c r="I283" s="19"/>
@@ -7535,13 +7538,13 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="F284" s="18">
         <v>213378</v>
@@ -7558,19 +7561,19 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="F285" s="18">
-        <v>213378</v>
+        <v>158029</v>
       </c>
       <c r="G285" s="18">
-        <v>5334460</v>
+        <v>3950730</v>
       </c>
       <c r="H285" s="19"/>
       <c r="I285" s="19"/>
@@ -7581,19 +7584,19 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="F286" s="18">
-        <v>213378</v>
+        <v>199355</v>
       </c>
       <c r="G286" s="18">
-        <v>5334460</v>
+        <v>4983856</v>
       </c>
       <c r="H286" s="19"/>
       <c r="I286" s="19"/>
@@ -7604,19 +7607,19 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="F287" s="18">
-        <v>213378</v>
+        <v>76708</v>
       </c>
       <c r="G287" s="18">
-        <v>5334460</v>
+        <v>1917684</v>
       </c>
       <c r="H287" s="19"/>
       <c r="I287" s="19"/>
@@ -7627,19 +7630,19 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="F288" s="18">
-        <v>213378</v>
+        <v>173927</v>
       </c>
       <c r="G288" s="18">
-        <v>5334460</v>
+        <v>4348155</v>
       </c>
       <c r="H288" s="19"/>
       <c r="I288" s="19"/>
@@ -7650,13 +7653,13 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="F289" s="18">
         <v>213378</v>
@@ -7673,19 +7676,19 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="F290" s="18">
-        <v>213378</v>
+        <v>158029</v>
       </c>
       <c r="G290" s="18">
-        <v>5334460</v>
+        <v>3950730</v>
       </c>
       <c r="H290" s="19"/>
       <c r="I290" s="19"/>
@@ -7696,19 +7699,19 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="F291" s="18">
-        <v>213378</v>
+        <v>199355</v>
       </c>
       <c r="G291" s="18">
-        <v>5334460</v>
+        <v>4983856</v>
       </c>
       <c r="H291" s="19"/>
       <c r="I291" s="19"/>
@@ -7719,19 +7722,19 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="F292" s="18">
-        <v>213378</v>
+        <v>76708</v>
       </c>
       <c r="G292" s="18">
-        <v>5334460</v>
+        <v>1917684</v>
       </c>
       <c r="H292" s="19"/>
       <c r="I292" s="19"/>
@@ -7742,19 +7745,19 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="F293" s="18">
-        <v>213378</v>
+        <v>173927</v>
       </c>
       <c r="G293" s="18">
-        <v>5334460</v>
+        <v>4348155</v>
       </c>
       <c r="H293" s="19"/>
       <c r="I293" s="19"/>
@@ -7765,13 +7768,13 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="F294" s="18">
         <v>213378</v>
@@ -7788,19 +7791,19 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="F295" s="18">
-        <v>213378</v>
+        <v>158029</v>
       </c>
       <c r="G295" s="18">
-        <v>5334460</v>
+        <v>3950730</v>
       </c>
       <c r="H295" s="19"/>
       <c r="I295" s="19"/>
@@ -7811,19 +7814,19 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="F296" s="18">
-        <v>213378</v>
+        <v>199355</v>
       </c>
       <c r="G296" s="18">
-        <v>5334460</v>
+        <v>4983856</v>
       </c>
       <c r="H296" s="19"/>
       <c r="I296" s="19"/>
@@ -7834,19 +7837,19 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="F297" s="18">
-        <v>213378</v>
+        <v>76708</v>
       </c>
       <c r="G297" s="18">
-        <v>5334460</v>
+        <v>1917684</v>
       </c>
       <c r="H297" s="19"/>
       <c r="I297" s="19"/>
@@ -7857,19 +7860,19 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="F298" s="18">
-        <v>213378</v>
+        <v>173927</v>
       </c>
       <c r="G298" s="18">
-        <v>5334460</v>
+        <v>4348155</v>
       </c>
       <c r="H298" s="19"/>
       <c r="I298" s="19"/>
@@ -7880,13 +7883,13 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="F299" s="18">
         <v>213378</v>
@@ -7903,19 +7906,19 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="F300" s="18">
-        <v>213378</v>
+        <v>158029</v>
       </c>
       <c r="G300" s="18">
-        <v>5334460</v>
+        <v>3950730</v>
       </c>
       <c r="H300" s="19"/>
       <c r="I300" s="19"/>
@@ -7926,19 +7929,19 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="F301" s="18">
-        <v>213378</v>
+        <v>199355</v>
       </c>
       <c r="G301" s="18">
-        <v>5334460</v>
+        <v>4983856</v>
       </c>
       <c r="H301" s="19"/>
       <c r="I301" s="19"/>
@@ -7949,19 +7952,19 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="F302" s="18">
-        <v>213378</v>
+        <v>76708</v>
       </c>
       <c r="G302" s="18">
-        <v>5334460</v>
+        <v>1917684</v>
       </c>
       <c r="H302" s="19"/>
       <c r="I302" s="19"/>
@@ -7972,19 +7975,19 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="F303" s="18">
-        <v>213378</v>
+        <v>173927</v>
       </c>
       <c r="G303" s="18">
-        <v>5334460</v>
+        <v>4348155</v>
       </c>
       <c r="H303" s="19"/>
       <c r="I303" s="19"/>
@@ -7995,13 +7998,13 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="F304" s="18">
         <v>213378</v>
@@ -8018,19 +8021,19 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="F305" s="18">
-        <v>213378</v>
+        <v>158029</v>
       </c>
       <c r="G305" s="18">
-        <v>5334460</v>
+        <v>3950730</v>
       </c>
       <c r="H305" s="19"/>
       <c r="I305" s="19"/>
@@ -8041,19 +8044,19 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="F306" s="18">
-        <v>213378</v>
+        <v>199355</v>
       </c>
       <c r="G306" s="18">
-        <v>5334460</v>
+        <v>4983856</v>
       </c>
       <c r="H306" s="19"/>
       <c r="I306" s="19"/>
@@ -8064,19 +8067,19 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="F307" s="18">
-        <v>213378</v>
+        <v>76708</v>
       </c>
       <c r="G307" s="18">
-        <v>5334460</v>
+        <v>1917684</v>
       </c>
       <c r="H307" s="19"/>
       <c r="I307" s="19"/>
@@ -8087,19 +8090,19 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="F308" s="18">
-        <v>213378</v>
+        <v>173927</v>
       </c>
       <c r="G308" s="18">
-        <v>5334460</v>
+        <v>4348155</v>
       </c>
       <c r="H308" s="19"/>
       <c r="I308" s="19"/>
@@ -8110,13 +8113,13 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="F309" s="18">
         <v>213378</v>
@@ -8133,19 +8136,19 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="F310" s="18">
-        <v>213378</v>
+        <v>158029</v>
       </c>
       <c r="G310" s="18">
-        <v>5334460</v>
+        <v>3950730</v>
       </c>
       <c r="H310" s="19"/>
       <c r="I310" s="19"/>
@@ -8156,19 +8159,19 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="F311" s="18">
-        <v>213378</v>
+        <v>199355</v>
       </c>
       <c r="G311" s="18">
-        <v>5334460</v>
+        <v>4983856</v>
       </c>
       <c r="H311" s="19"/>
       <c r="I311" s="19"/>
@@ -8179,19 +8182,19 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="F312" s="18">
-        <v>213378</v>
+        <v>76708</v>
       </c>
       <c r="G312" s="18">
-        <v>5334460</v>
+        <v>1917684</v>
       </c>
       <c r="H312" s="19"/>
       <c r="I312" s="19"/>
@@ -8202,19 +8205,19 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="F313" s="18">
-        <v>213378</v>
+        <v>173927</v>
       </c>
       <c r="G313" s="18">
-        <v>5334460</v>
+        <v>4348155</v>
       </c>
       <c r="H313" s="19"/>
       <c r="I313" s="19"/>
@@ -8225,13 +8228,13 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="F314" s="18">
         <v>213378</v>
@@ -8248,19 +8251,19 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="F315" s="18">
-        <v>213378</v>
+        <v>158029</v>
       </c>
       <c r="G315" s="18">
-        <v>5334460</v>
+        <v>3950730</v>
       </c>
       <c r="H315" s="19"/>
       <c r="I315" s="19"/>
@@ -8271,19 +8274,19 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="F316" s="18">
-        <v>213378</v>
+        <v>199355</v>
       </c>
       <c r="G316" s="18">
-        <v>5334460</v>
+        <v>4983856</v>
       </c>
       <c r="H316" s="19"/>
       <c r="I316" s="19"/>
@@ -8294,19 +8297,19 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="F317" s="18">
-        <v>213378</v>
+        <v>76708</v>
       </c>
       <c r="G317" s="18">
-        <v>5334460</v>
+        <v>1917684</v>
       </c>
       <c r="H317" s="19"/>
       <c r="I317" s="19"/>
@@ -8317,19 +8320,19 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="F318" s="18">
-        <v>213378</v>
+        <v>173927</v>
       </c>
       <c r="G318" s="18">
-        <v>5334460</v>
+        <v>4348155</v>
       </c>
       <c r="H318" s="19"/>
       <c r="I318" s="19"/>
@@ -8340,13 +8343,13 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="F319" s="18">
         <v>213378</v>
@@ -8363,19 +8366,19 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="F320" s="18">
-        <v>213378</v>
+        <v>158029</v>
       </c>
       <c r="G320" s="18">
-        <v>5334460</v>
+        <v>3950730</v>
       </c>
       <c r="H320" s="19"/>
       <c r="I320" s="19"/>
@@ -8386,19 +8389,19 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="F321" s="18">
-        <v>213378</v>
+        <v>199355</v>
       </c>
       <c r="G321" s="18">
-        <v>5334460</v>
+        <v>4983856</v>
       </c>
       <c r="H321" s="19"/>
       <c r="I321" s="19"/>
@@ -8409,19 +8412,19 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="F322" s="18">
-        <v>213378</v>
+        <v>76708</v>
       </c>
       <c r="G322" s="18">
-        <v>5334460</v>
+        <v>1917684</v>
       </c>
       <c r="H322" s="19"/>
       <c r="I322" s="19"/>
@@ -8432,19 +8435,19 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="F323" s="18">
-        <v>213378</v>
+        <v>173927</v>
       </c>
       <c r="G323" s="18">
-        <v>5334460</v>
+        <v>4348155</v>
       </c>
       <c r="H323" s="19"/>
       <c r="I323" s="19"/>
@@ -8455,13 +8458,13 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="F324" s="18">
         <v>213378</v>
@@ -8478,19 +8481,19 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D325" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E325" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D325" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E325" s="16" t="s">
-        <v>53</v>
-      </c>
       <c r="F325" s="18">
-        <v>213378</v>
+        <v>158029</v>
       </c>
       <c r="G325" s="18">
-        <v>5334460</v>
+        <v>3950730</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19"/>
@@ -8501,19 +8504,19 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D326" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E326" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D326" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E326" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="F326" s="18">
-        <v>213378</v>
+        <v>199355</v>
       </c>
       <c r="G326" s="18">
-        <v>5334460</v>
+        <v>4983856</v>
       </c>
       <c r="H326" s="19"/>
       <c r="I326" s="19"/>
@@ -8524,19 +8527,19 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D327" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E327" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D327" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E327" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="F327" s="18">
-        <v>213378</v>
+        <v>76708</v>
       </c>
       <c r="G327" s="18">
-        <v>5334460</v>
+        <v>1917684</v>
       </c>
       <c r="H327" s="19"/>
       <c r="I327" s="19"/>
@@ -8547,19 +8550,19 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D328" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E328" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D328" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E328" s="16" t="s">
-        <v>56</v>
-      </c>
       <c r="F328" s="18">
-        <v>213378</v>
+        <v>173927</v>
       </c>
       <c r="G328" s="18">
-        <v>5334460</v>
+        <v>4348155</v>
       </c>
       <c r="H328" s="19"/>
       <c r="I328" s="19"/>
@@ -8570,13 +8573,13 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D329" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E329" s="16" t="s">
         <v>130</v>
-      </c>
-      <c r="D329" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E329" s="16" t="s">
-        <v>57</v>
       </c>
       <c r="F329" s="18">
         <v>213378</v>
@@ -8593,19 +8596,19 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D330" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E330" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E330" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="F330" s="18">
-        <v>213378</v>
+        <v>158029</v>
       </c>
       <c r="G330" s="18">
-        <v>5334460</v>
+        <v>3950730</v>
       </c>
       <c r="H330" s="19"/>
       <c r="I330" s="19"/>
@@ -8616,19 +8619,19 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D331" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E331" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E331" s="16" t="s">
-        <v>59</v>
-      </c>
       <c r="F331" s="18">
-        <v>213378</v>
+        <v>199355</v>
       </c>
       <c r="G331" s="18">
-        <v>5334460</v>
+        <v>4983856</v>
       </c>
       <c r="H331" s="19"/>
       <c r="I331" s="19"/>
@@ -8639,19 +8642,19 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D332" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E332" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E332" s="16" t="s">
-        <v>60</v>
-      </c>
       <c r="F332" s="18">
-        <v>213378</v>
+        <v>76708</v>
       </c>
       <c r="G332" s="18">
-        <v>5334460</v>
+        <v>1917684</v>
       </c>
       <c r="H332" s="19"/>
       <c r="I332" s="19"/>
@@ -8662,19 +8665,19 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="D333" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E333" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E333" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="F333" s="18">
-        <v>213378</v>
+        <v>173927</v>
       </c>
       <c r="G333" s="18">
-        <v>5334460</v>
+        <v>4348155</v>
       </c>
       <c r="H333" s="19"/>
       <c r="I333" s="19"/>
@@ -8685,13 +8688,13 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="D334" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E334" s="16" t="s">
         <v>131</v>
-      </c>
-      <c r="E334" s="16" t="s">
-        <v>62</v>
       </c>
       <c r="F334" s="18">
         <v>213378</v>
@@ -8708,19 +8711,19 @@
         <v>8</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="E335" s="16" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="F335" s="18">
-        <v>213378</v>
+        <v>158029</v>
       </c>
       <c r="G335" s="18">
-        <v>5334460</v>
+        <v>3950730</v>
       </c>
       <c r="H335" s="19"/>
       <c r="I335" s="19"/>
@@ -8731,19 +8734,19 @@
         <v>8</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="F336" s="18">
-        <v>213378</v>
+        <v>199355</v>
       </c>
       <c r="G336" s="18">
-        <v>5334460</v>
+        <v>4983856</v>
       </c>
       <c r="H336" s="19"/>
       <c r="I336" s="19"/>
@@ -8754,19 +8757,19 @@
         <v>8</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="F337" s="18">
-        <v>213378</v>
+        <v>76708</v>
       </c>
       <c r="G337" s="18">
-        <v>5334460</v>
+        <v>1917684</v>
       </c>
       <c r="H337" s="19"/>
       <c r="I337" s="19"/>
@@ -8777,19 +8780,19 @@
         <v>8</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="F338" s="18">
-        <v>213378</v>
+        <v>173927</v>
       </c>
       <c r="G338" s="18">
-        <v>5334460</v>
+        <v>4348155</v>
       </c>
       <c r="H338" s="19"/>
       <c r="I338" s="19"/>
@@ -8800,13 +8803,13 @@
         <v>8</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="F339" s="18">
         <v>213378</v>
@@ -8823,19 +8826,19 @@
         <v>8</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="F340" s="18">
-        <v>213378</v>
+        <v>158029</v>
       </c>
       <c r="G340" s="18">
-        <v>5334460</v>
+        <v>3950730</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19"/>
@@ -8846,19 +8849,19 @@
         <v>8</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="F341" s="18">
-        <v>213378</v>
+        <v>199355</v>
       </c>
       <c r="G341" s="18">
-        <v>5334460</v>
+        <v>4983856</v>
       </c>
       <c r="H341" s="19"/>
       <c r="I341" s="19"/>
@@ -8869,19 +8872,19 @@
         <v>8</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D342" s="17" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E342" s="16" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="F342" s="18">
-        <v>213378</v>
+        <v>76708</v>
       </c>
       <c r="G342" s="18">
-        <v>5334460</v>
+        <v>1917684</v>
       </c>
       <c r="H342" s="19"/>
       <c r="I342" s="19"/>
@@ -8892,75 +8895,190 @@
         <v>8</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="F343" s="18">
-        <v>213378</v>
+        <v>173927</v>
       </c>
       <c r="G343" s="18">
-        <v>5334460</v>
+        <v>4348155</v>
       </c>
       <c r="H343" s="19"/>
       <c r="I343" s="19"/>
       <c r="J343" s="20"/>
     </row>
     <row r="344" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B344" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C344" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D344" s="23" t="s">
+      <c r="B344" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C344" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D344" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E344" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E344" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F344" s="24">
-        <v>7347</v>
-      </c>
-      <c r="G344" s="24">
-        <v>3207074</v>
-      </c>
-      <c r="H344" s="25"/>
-      <c r="I344" s="25"/>
-      <c r="J344" s="26"/>
+      <c r="F344" s="18">
+        <v>213378</v>
+      </c>
+      <c r="G344" s="18">
+        <v>5334460</v>
+      </c>
+      <c r="H344" s="19"/>
+      <c r="I344" s="19"/>
+      <c r="J344" s="20"/>
+    </row>
+    <row r="345" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B345" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C345" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D345" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E345" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F345" s="18">
+        <v>158029</v>
+      </c>
+      <c r="G345" s="18">
+        <v>3950730</v>
+      </c>
+      <c r="H345" s="19"/>
+      <c r="I345" s="19"/>
+      <c r="J345" s="20"/>
+    </row>
+    <row r="346" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B346" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C346" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D346" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E346" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F346" s="18">
+        <v>199355</v>
+      </c>
+      <c r="G346" s="18">
+        <v>4983856</v>
+      </c>
+      <c r="H346" s="19"/>
+      <c r="I346" s="19"/>
+      <c r="J346" s="20"/>
+    </row>
+    <row r="347" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B347" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C347" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D347" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E347" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F347" s="18">
+        <v>76708</v>
+      </c>
+      <c r="G347" s="18">
+        <v>1917684</v>
+      </c>
+      <c r="H347" s="19"/>
+      <c r="I347" s="19"/>
+      <c r="J347" s="20"/>
+    </row>
+    <row r="348" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B348" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C348" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D348" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E348" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F348" s="18">
+        <v>173927</v>
+      </c>
+      <c r="G348" s="18">
+        <v>4348155</v>
+      </c>
+      <c r="H348" s="19"/>
+      <c r="I348" s="19"/>
+      <c r="J348" s="20"/>
     </row>
     <row r="349" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B349" s="32" t="s">
+      <c r="B349" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C349" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D349" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E349" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F349" s="24">
+        <v>213378</v>
+      </c>
+      <c r="G349" s="24">
+        <v>5334460</v>
+      </c>
+      <c r="H349" s="25"/>
+      <c r="I349" s="25"/>
+      <c r="J349" s="26"/>
+    </row>
+    <row r="354" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B354" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C354" s="32"/>
+      <c r="H354" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I354" s="1"/>
+      <c r="J354" s="1"/>
+    </row>
+    <row r="355" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B355" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="C349" s="32"/>
-      <c r="H349" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I349" s="1"/>
-      <c r="J349" s="1"/>
-    </row>
-    <row r="350" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B350" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="C350" s="32"/>
-      <c r="H350" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I350" s="1"/>
-      <c r="J350" s="1"/>
+      <c r="C355" s="32"/>
+      <c r="H355" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I355" s="1"/>
+      <c r="J355" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B350:C350"/>
-    <mergeCell ref="B349:C349"/>
-    <mergeCell ref="H350:J350"/>
-    <mergeCell ref="H349:J349"/>
+    <mergeCell ref="B355:C355"/>
+    <mergeCell ref="B354:C354"/>
+    <mergeCell ref="H355:J355"/>
+    <mergeCell ref="H354:J354"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
